--- a/Paper_resultados/Parametric_model/LoS/Output/Model_selection/AIC.xlsx
+++ b/Paper_resultados/Parametric_model/LoS/Output/Model_selection/AIC.xlsx
@@ -398,17 +398,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gengamma</t>
+          <t>gengamma.orig</t>
         </is>
       </c>
       <c r="B3">
-        <v>7790.371163508965</v>
+        <v>7794.669153826468</v>
       </c>
       <c r="C3">
-        <v>7805.232216141577</v>
+        <v>7809.53020645908</v>
       </c>
       <c r="D3">
-        <v>-3892.185581754482</v>
+        <v>-3894.334576913234</v>
       </c>
     </row>
     <row r="4">
